--- a/Excels/data/2008.xlsx
+++ b/Excels/data/2008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098D6EF5-F998-4498-9AF8-8008429DC3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBBAF5-018B-46EC-97A3-B809C760489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="3915" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{8FC9DF12-B6A5-4483-8CF8-5D33A3FDBE78}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{8FC9DF12-B6A5-4483-8CF8-5D33A3FDBE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="162">
   <si>
     <t>Round</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>riders</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -650,16 +656,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -814,8 +824,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{9AC3C258-216F-4A47-BDEE-566B34554E4F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -823,6 +833,7 @@
       <queryTableField id="5" name="No." tableColumnId="5"/>
       <queryTableField id="6" name="Rider" tableColumnId="6"/>
       <queryTableField id="7" name="Rounds" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -838,9 +849,9 @@
   <autoFilter ref="A1:D19" xr:uid="{9AA97862-845C-4932-94D6-B07546A6E7E9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1A92AE09-F8C7-4EAF-B696-FF9738D3579E}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F35CA7D4-2337-4932-8B53-66CCFF94D7C2}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{36A7DCAA-E41D-4497-8FBD-BC4D2F6291A5}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{8B0AD93F-830B-4DA7-9AC3-18B83303E46F}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{F35CA7D4-2337-4932-8B53-66CCFF94D7C2}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{36A7DCAA-E41D-4497-8FBD-BC4D2F6291A5}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8B0AD93F-830B-4DA7-9AC3-18B83303E46F}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -851,26 +862,26 @@
   <autoFilter ref="A1:W24" xr:uid="{C8218113-96C2-4F59-8D3D-A5DB3FDC47E7}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{5A014B26-0399-4413-837B-53F4A383BD2D}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{8C1EEC1E-FC5E-4474-902E-657A1B04D98A}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{415EE1BB-B11D-4928-B1DF-ED44FCCA9047}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{E7B7780F-EF59-4401-8E9B-6372823B7134}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{AECE6BDA-A55B-4D0C-B62D-ED6252ED2D55}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{557F061D-75DA-4A45-B273-59EE4F0D687C}" uniqueName="6" name="ESP" queryTableFieldId="6" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{622295A9-FC65-4D7C-9791-F65D97C88F6C}" uniqueName="7" name="POR" queryTableFieldId="7" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{CD0206C9-C62E-4622-BBA6-E145B332300C}" uniqueName="8" name="CHN" queryTableFieldId="8" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{F1ED173D-0A02-461E-A9F7-CDFE0C3FC61C}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{796D6FBD-1B18-41A3-AECC-335FEB8C9C01}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{1E5C47BA-6635-450A-B814-C4CCCFCACF5C}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{368B8211-6E62-4C9E-8176-D839AECCFCF4}" uniqueName="12" name="GBR" queryTableFieldId="12" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{B7087A68-C4FC-4031-A8AD-E513B3B8F4E8}" uniqueName="13" name="NED" queryTableFieldId="13" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{A1EF8E3D-5F64-46D5-8807-49EC41BFA80B}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{5E459E95-2986-4F94-AC8A-A44652670B4D}" uniqueName="15" name="USA" queryTableFieldId="15" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{2A2F1807-17BF-4C43-9DF5-AF37D9820A83}" uniqueName="16" name="CZE" queryTableFieldId="16" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{F104864A-76A1-46BC-9E80-13235BFC6C39}" uniqueName="17" name="SMR" queryTableFieldId="17" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8C1EEC1E-FC5E-4474-902E-657A1B04D98A}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{415EE1BB-B11D-4928-B1DF-ED44FCCA9047}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{E7B7780F-EF59-4401-8E9B-6372823B7134}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{AECE6BDA-A55B-4D0C-B62D-ED6252ED2D55}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{557F061D-75DA-4A45-B273-59EE4F0D687C}" uniqueName="6" name="ESP" queryTableFieldId="6" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{622295A9-FC65-4D7C-9791-F65D97C88F6C}" uniqueName="7" name="POR" queryTableFieldId="7" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{CD0206C9-C62E-4622-BBA6-E145B332300C}" uniqueName="8" name="CHN" queryTableFieldId="8" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{F1ED173D-0A02-461E-A9F7-CDFE0C3FC61C}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{796D6FBD-1B18-41A3-AECC-335FEB8C9C01}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{1E5C47BA-6635-450A-B814-C4CCCFCACF5C}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{368B8211-6E62-4C9E-8176-D839AECCFCF4}" uniqueName="12" name="GBR" queryTableFieldId="12" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{B7087A68-C4FC-4031-A8AD-E513B3B8F4E8}" uniqueName="13" name="NED" queryTableFieldId="13" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{A1EF8E3D-5F64-46D5-8807-49EC41BFA80B}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{5E459E95-2986-4F94-AC8A-A44652670B4D}" uniqueName="15" name="USA" queryTableFieldId="15" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{2A2F1807-17BF-4C43-9DF5-AF37D9820A83}" uniqueName="16" name="CZE" queryTableFieldId="16" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{F104864A-76A1-46BC-9E80-13235BFC6C39}" uniqueName="17" name="SMR" queryTableFieldId="17" dataDxfId="10"/>
     <tableColumn id="18" xr3:uid="{133F3103-557F-46E5-9870-8A2E6E3BBADE}" uniqueName="18" name="INP" queryTableFieldId="18"/>
-    <tableColumn id="19" xr3:uid="{20509AA5-C319-433C-81BB-A6D03A3FA31A}" uniqueName="19" name="JPN" queryTableFieldId="19" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{064E2194-3B81-47BE-9CF6-F24AB1C579FA}" uniqueName="20" name="AUS" queryTableFieldId="20" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{98CABDBE-7557-40C3-BB47-373923E6ADF5}" uniqueName="21" name="MAL" queryTableFieldId="21" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{20509AA5-C319-433C-81BB-A6D03A3FA31A}" uniqueName="19" name="JPN" queryTableFieldId="19" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{064E2194-3B81-47BE-9CF6-F24AB1C579FA}" uniqueName="20" name="AUS" queryTableFieldId="20" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{98CABDBE-7557-40C3-BB47-373923E6ADF5}" uniqueName="21" name="MAL" queryTableFieldId="21" dataDxfId="7"/>
     <tableColumn id="22" xr3:uid="{3286B075-6306-430C-B99D-5B35D40F54E9}" uniqueName="22" name="VAL" queryTableFieldId="22"/>
     <tableColumn id="23" xr3:uid="{F0BC2B4C-F838-451D-A67C-1D49982DB566}" uniqueName="23" name="Pts" queryTableFieldId="23"/>
   </tableColumns>
@@ -879,16 +890,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{775AF2F8-3B46-4795-B113-A5227C4B0CE7}" name="Table_2" displayName="Table_2" ref="A1:G26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G26" xr:uid="{775AF2F8-3B46-4795-B113-A5227C4B0CE7}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{58877C34-FB5B-4629-93AE-9E06DAB4640F}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C694A4CC-06B0-44A4-B57A-D64B266D6D04}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1EADFF57-878F-46FD-A2B4-A64C5689B480}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B0B5A3EB-5753-4990-A454-C434016B6B12}" uniqueName="4" name="Tyre" queryTableFieldId="4" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{775AF2F8-3B46-4795-B113-A5227C4B0CE7}" name="Table_2" displayName="Table_2" ref="A1:H26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H26" xr:uid="{775AF2F8-3B46-4795-B113-A5227C4B0CE7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{58877C34-FB5B-4629-93AE-9E06DAB4640F}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C694A4CC-06B0-44A4-B57A-D64B266D6D04}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1EADFF57-878F-46FD-A2B4-A64C5689B480}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B0B5A3EB-5753-4990-A454-C434016B6B12}" uniqueName="4" name="Tyre" queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{8452FC82-5D35-43F7-968A-0EDBD39F7B34}" uniqueName="5" name="No." queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{C26AD956-76B4-4BB5-AF5A-BD11596FA2D7}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{CE105F1F-1239-4E68-BF65-B0D840C53C6C}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C26AD956-76B4-4BB5-AF5A-BD11596FA2D7}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CE105F1F-1239-4E68-BF65-B0D840C53C6C}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4BF3556F-A5A9-4C96-8D9F-00DEA0439E45}" uniqueName="8" name="Class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2962,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB9EE0D-A837-46B5-ABA6-8FDC6F4BDEBD}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,6 +3011,9 @@
       <c r="G1" t="s">
         <v>64</v>
       </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3022,6 +3037,9 @@
       <c r="G2" t="s">
         <v>69</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3045,6 +3063,9 @@
       <c r="G3" t="s">
         <v>69</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3068,6 +3089,9 @@
       <c r="G4" t="s">
         <v>69</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3091,6 +3115,9 @@
       <c r="G5" t="s">
         <v>69</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3114,6 +3141,9 @@
       <c r="G6" t="s">
         <v>78</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3137,6 +3167,9 @@
       <c r="G7" t="s">
         <v>80</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3160,6 +3193,9 @@
       <c r="G8" t="s">
         <v>82</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3183,6 +3219,9 @@
       <c r="G9" t="s">
         <v>84</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3206,6 +3245,9 @@
       <c r="G10" t="s">
         <v>69</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3229,6 +3271,9 @@
       <c r="G11" t="s">
         <v>69</v>
       </c>
+      <c r="H11" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3252,6 +3297,9 @@
       <c r="G12" t="s">
         <v>69</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3275,6 +3323,9 @@
       <c r="G13" t="s">
         <v>69</v>
       </c>
+      <c r="H13" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3298,6 +3349,9 @@
       <c r="G14" t="s">
         <v>69</v>
       </c>
+      <c r="H14" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3321,6 +3375,9 @@
       <c r="G15" t="s">
         <v>96</v>
       </c>
+      <c r="H15" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3344,9 +3401,12 @@
       <c r="G16" t="s">
         <v>98</v>
       </c>
+      <c r="H16" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -3368,8 +3428,11 @@
       <c r="G17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -3391,8 +3454,11 @@
       <c r="G18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -3414,8 +3480,11 @@
       <c r="G19" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -3437,8 +3506,11 @@
       <c r="G20" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -3460,8 +3532,11 @@
       <c r="G21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3483,8 +3558,11 @@
       <c r="G22" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -3506,8 +3584,11 @@
       <c r="G23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -3529,8 +3610,11 @@
       <c r="G24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -3552,8 +3636,11 @@
       <c r="G25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -3574,6 +3661,9 @@
       </c>
       <c r="G26" t="s">
         <v>69</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/data/2008.xlsx
+++ b/Excels/data/2008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730B420-AF77-4BC3-B61F-2BB1A6352594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B262D-E91E-4F37-BCFA-24A08A9FE548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18075" windowHeight="12255" tabRatio="802" activeTab="7" xr2:uid="{8FC9DF12-B6A5-4483-8CF8-5D33A3FDBE78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="802" activeTab="10" xr2:uid="{8FC9DF12-B6A5-4483-8CF8-5D33A3FDBE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4901" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4896" uniqueCount="505">
   <si>
     <t>Round</t>
   </si>
@@ -1733,6 +1733,9 @@
   </si>
   <si>
     <t>125cc</t>
+  </si>
+  <si>
+    <t>Raffaele de Rosa</t>
   </si>
 </sst>
 </file>
@@ -1793,11 +1796,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3008,7 +3012,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,7 +3979,7 @@
         <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>504</v>
       </c>
       <c r="G37" t="s">
         <v>167</v>
@@ -5580,10 +5584,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F448AE77-19F1-4579-9E7B-C6EC0030917C}">
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6670,8 +6674,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>330</v>
+      <c r="A19" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="B19" t="s">
         <v>503</v>
@@ -9257,31 +9261,6 @@
       </c>
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>503</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14775,7 +14754,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16049,8 +16028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB0AAF0-29BB-4CFB-A4D7-1980FB205F2A}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excels/data/2008.xlsx
+++ b/Excels/data/2008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B262D-E91E-4F37-BCFA-24A08A9FE548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A66144-1D57-4247-AD37-3F824B45A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="802" activeTab="10" xr2:uid="{8FC9DF12-B6A5-4483-8CF8-5D33A3FDBE78}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18075" windowHeight="12255" tabRatio="802" firstSheet="3" activeTab="10" xr2:uid="{8FC9DF12-B6A5-4483-8CF8-5D33A3FDBE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -1796,12 +1796,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5586,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F448AE77-19F1-4579-9E7B-C6EC0030917C}">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:B98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6674,7 +6673,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>504</v>
       </c>
       <c r="B19" t="s">

--- a/Excels/data/2008.xlsx
+++ b/Excels/data/2008.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A66144-1D57-4247-AD37-3F824B45A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FABBE-7586-46F0-B67C-86FA467032F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18075" windowHeight="12255" tabRatio="802" firstSheet="3" activeTab="10" xr2:uid="{8FC9DF12-B6A5-4483-8CF8-5D33A3FDBE78}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="802" firstSheet="3" activeTab="10" xr2:uid="{8FC9DF12-B6A5-4483-8CF8-5D33A3FDBE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -2721,7 +2721,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5585,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F448AE77-19F1-4579-9E7B-C6EC0030917C}">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:T93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5714,25 +5714,25 @@
       <c r="L2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5773,25 +5773,25 @@
       <c r="L3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5832,25 +5832,25 @@
       <c r="L4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5891,25 +5891,25 @@
       <c r="L5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="S5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5950,25 +5950,25 @@
       <c r="L6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="N6" s="1" t="s">
         <v>141</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="R6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6009,25 +6009,25 @@
       <c r="L7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>147</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6068,25 +6068,25 @@
       <c r="L8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>157</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6127,25 +6127,25 @@
       <c r="L9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="N9" s="2" t="s">
         <v>153</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6184,25 +6184,25 @@
       <c r="L10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="O10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6243,25 +6243,25 @@
       <c r="L11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="P11" s="2" t="s">
         <v>147</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6302,25 +6302,25 @@
       <c r="L12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="O12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="S12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6361,25 +6361,25 @@
       <c r="L13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="R13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6418,25 +6418,25 @@
       <c r="L14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="N14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -6475,25 +6475,25 @@
       <c r="L15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="P15" s="2" t="s">
         <v>147</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="S15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6534,29 +6534,29 @@
       <c r="L16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="N16" s="1" t="s">
         <v>147</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="R16" s="1" t="s">
         <v>147</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>349</v>
       </c>
@@ -6593,29 +6593,29 @@
       <c r="L17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="R17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>296</v>
       </c>
@@ -6652,27 +6652,27 @@
       <c r="L18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="N18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>504</v>
       </c>
@@ -6709,29 +6709,29 @@
       <c r="L19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="N19" s="2" t="s">
         <v>147</v>
       </c>
       <c r="O19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="R19" s="2" t="s">
         <v>147</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>344</v>
       </c>
@@ -6766,29 +6766,29 @@
       <c r="L20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="N20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="S20" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>287</v>
       </c>
@@ -6825,29 +6825,29 @@
       <c r="L21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>329</v>
       </c>
@@ -6884,29 +6884,29 @@
       <c r="L22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="O22" s="1" t="s">
         <v>147</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>294</v>
       </c>
@@ -6943,29 +6943,29 @@
       <c r="L23" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>337</v>
       </c>
@@ -7002,25 +7002,25 @@
       <c r="L24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="P24" s="1" t="s">
         <v>147</v>
       </c>
       <c r="Q24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>338</v>
       </c>
@@ -7057,29 +7057,29 @@
       <c r="L25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="N25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="P25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="R25" s="2" t="s">
         <v>147</v>
       </c>
       <c r="S25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>304</v>
       </c>
@@ -7114,25 +7114,25 @@
       <c r="L26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>271</v>
       </c>
@@ -7169,19 +7169,19 @@
       <c r="L27" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>192</v>
       </c>
@@ -7216,15 +7216,15 @@
         <v>98</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>276</v>
       </c>
@@ -7261,29 +7261,29 @@
       <c r="L29" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="R29" s="2" t="s">
         <v>147</v>
       </c>
       <c r="S29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>336</v>
       </c>
@@ -7302,19 +7302,19 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1" t="s">
+      <c r="S30" s="1"/>
+      <c r="T30" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>432</v>
       </c>
@@ -7333,15 +7333,15 @@
       <c r="L31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>313</v>
       </c>
@@ -7376,29 +7376,29 @@
       <c r="L32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>295</v>
       </c>
@@ -7415,21 +7415,21 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="S33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>269</v>
       </c>
@@ -7446,25 +7446,25 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>306</v>
       </c>
@@ -7481,27 +7481,27 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="N35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="2"/>
+      <c r="S35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="T35" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>342</v>
       </c>
@@ -7538,18 +7538,15 @@
       <c r="L36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q36" s="1" t="s">
         <v>147</v>
       </c>
@@ -7559,8 +7556,11 @@
       <c r="S36" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>277</v>
       </c>
@@ -7595,29 +7595,29 @@
       <c r="L37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>146</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>147</v>
       </c>
       <c r="R37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S37" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="T37" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>325</v>
       </c>
@@ -7636,29 +7636,29 @@
       <c r="L38" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="P38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>327</v>
       </c>
@@ -7675,17 +7675,17 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>354</v>
       </c>
@@ -7722,21 +7722,21 @@
       <c r="L40" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="1"/>
+      <c r="T40" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>323</v>
       </c>
@@ -7771,15 +7771,15 @@
         <v>147</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>356</v>
       </c>
@@ -7800,23 +7800,23 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="1"/>
+      <c r="P42" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>428</v>
       </c>
@@ -7835,15 +7835,15 @@
       <c r="L43" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>440</v>
       </c>
@@ -7860,17 +7860,17 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>315</v>
       </c>
@@ -7907,27 +7907,27 @@
       <c r="L45" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2" t="s">
+      <c r="O45" s="2"/>
+      <c r="P45" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="P45" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="Q45" s="2" t="s">
         <v>147</v>
       </c>
       <c r="R45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S45" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>333</v>
       </c>
@@ -7946,29 +7946,29 @@
       <c r="L46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q46" s="1" t="s">
         <v>147</v>
       </c>
       <c r="R46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>379</v>
       </c>
@@ -7987,17 +7987,17 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="2"/>
+      <c r="O47" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>362</v>
       </c>
@@ -8016,15 +8016,15 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>362</v>
       </c>
@@ -8045,15 +8045,15 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>395</v>
       </c>
@@ -8070,17 +8070,17 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="1" t="s">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>273</v>
       </c>
@@ -8097,17 +8097,17 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="2" t="s">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>419</v>
       </c>
@@ -8128,17 +8128,17 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52" s="1" t="s">
+      <c r="S52" s="1"/>
+      <c r="T52" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>290</v>
       </c>
@@ -8159,15 +8159,15 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>376</v>
       </c>
@@ -8188,15 +8188,15 @@
       <c r="L54" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>397</v>
       </c>
@@ -8213,17 +8213,17 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2" t="s">
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>317</v>
       </c>
@@ -8242,17 +8242,17 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="1"/>
+      <c r="O56" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>361</v>
       </c>
@@ -8269,17 +8269,17 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="2" t="s">
+      <c r="S57" s="2"/>
+      <c r="T57" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>415</v>
       </c>
@@ -8298,15 +8298,15 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>321</v>
       </c>
@@ -8329,15 +8329,15 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>413</v>
       </c>
@@ -8356,17 +8356,17 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>385</v>
       </c>
@@ -8385,17 +8385,17 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>426</v>
       </c>
@@ -8414,15 +8414,15 @@
         <v>477</v>
       </c>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>407</v>
       </c>
@@ -8441,15 +8441,15 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>297</v>
       </c>
@@ -8466,17 +8466,17 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1" t="s">
+      <c r="O64" s="1"/>
+      <c r="P64" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>351</v>
       </c>
@@ -8495,15 +8495,15 @@
         <v>478</v>
       </c>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>368</v>
       </c>
@@ -8522,17 +8522,17 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>424</v>
       </c>
@@ -8551,15 +8551,15 @@
         <v>479</v>
       </c>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>438</v>
       </c>
@@ -8576,17 +8576,17 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1" t="s">
+      <c r="O68" s="1"/>
+      <c r="P68" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>436</v>
       </c>
@@ -8605,15 +8605,15 @@
         <v>480</v>
       </c>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>444</v>
       </c>
@@ -8630,17 +8630,17 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>343</v>
       </c>
@@ -8659,15 +8659,15 @@
         <v>475</v>
       </c>
       <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>446</v>
       </c>
@@ -8684,17 +8684,17 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>371</v>
       </c>
@@ -8713,15 +8713,15 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>359</v>
       </c>
@@ -8738,17 +8738,17 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="1" t="s">
+      <c r="S74" s="1"/>
+      <c r="T74" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>411</v>
       </c>
@@ -8765,17 +8765,17 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-      <c r="Q75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="R75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>383</v>
       </c>
@@ -8792,17 +8792,17 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="Q76" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="S76" s="1"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>399</v>
       </c>
@@ -8819,17 +8819,17 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>393</v>
       </c>
@@ -8846,17 +8846,17 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>387</v>
       </c>
@@ -8873,17 +8873,17 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
-      <c r="P79" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>372</v>
       </c>
@@ -8900,17 +8900,17 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>434</v>
       </c>
@@ -8929,15 +8929,15 @@
       <c r="L81" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>430</v>
       </c>
@@ -8956,15 +8956,15 @@
       <c r="L82" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>423</v>
       </c>
@@ -8983,15 +8983,15 @@
         <v>147</v>
       </c>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>401</v>
       </c>
@@ -9010,15 +9010,15 @@
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>405</v>
       </c>
@@ -9037,15 +9037,15 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>409</v>
       </c>
@@ -9064,15 +9064,15 @@
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>403</v>
       </c>
@@ -9091,15 +9091,15 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>364</v>
       </c>
@@ -9118,15 +9118,15 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>389</v>
       </c>
@@ -9145,15 +9145,15 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -9172,15 +9172,15 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>391</v>
       </c>
@@ -9199,15 +9199,15 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>366</v>
       </c>
@@ -9224,17 +9224,17 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="1" t="s">
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="R92" s="1"/>
       <c r="S92" s="1"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>442</v>
       </c>
@@ -9251,15 +9251,15 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
-      <c r="Q93" s="2" t="s">
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="R93" s="2"/>
       <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16027,8 +16027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB0AAF0-29BB-4CFB-A4D7-1980FB205F2A}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16156,25 +16156,25 @@
       <c r="L2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>144</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -16215,25 +16215,25 @@
       <c r="L3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>142</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -16274,25 +16274,25 @@
       <c r="L4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="O4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -16333,25 +16333,25 @@
       <c r="L5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -16392,25 +16392,25 @@
       <c r="L6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -16451,21 +16451,21 @@
       <c r="L7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -16504,25 +16504,25 @@
       <c r="L8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="O8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="R8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16563,25 +16563,25 @@
       <c r="L9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="R9" s="2" t="s">
         <v>147</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -16622,25 +16622,25 @@
       <c r="L10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -16681,25 +16681,25 @@
       <c r="L11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>148</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -16740,21 +16740,21 @@
       <c r="L12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="N12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -16795,25 +16795,25 @@
       <c r="L13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -16854,25 +16854,25 @@
       <c r="L14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -16913,25 +16913,25 @@
       <c r="L15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="O15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="R15" s="2" t="s">
         <v>147</v>
       </c>
       <c r="S15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -16972,29 +16972,29 @@
       <c r="L16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>210</v>
       </c>
@@ -17031,29 +17031,29 @@
       <c r="L17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="N17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>216</v>
       </c>
@@ -17090,29 +17090,29 @@
       <c r="L18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="O18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>221</v>
       </c>
@@ -17149,27 +17149,27 @@
       <c r="L19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="S19" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
@@ -17206,17 +17206,17 @@
       <c r="L20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>188</v>
       </c>
@@ -17253,29 +17253,29 @@
       <c r="L21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="N21" s="2" t="s">
         <v>147</v>
       </c>
       <c r="O21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>183</v>
       </c>
@@ -17312,21 +17312,21 @@
       <c r="L22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="O22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>217</v>
       </c>
@@ -17349,23 +17349,23 @@
       <c r="L23" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2" t="s">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>181</v>
       </c>
@@ -17386,27 +17386,27 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="R24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>222</v>
       </c>
@@ -17423,27 +17423,27 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="Q25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>185</v>
       </c>
@@ -17462,15 +17462,15 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>185</v>
       </c>
@@ -17487,23 +17487,23 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>245</v>
       </c>
@@ -17520,17 +17520,17 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>263</v>
       </c>
@@ -17549,21 +17549,21 @@
       <c r="L29" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S29" s="2"/>
+      <c r="T29" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>228</v>
       </c>
@@ -17600,29 +17600,29 @@
       <c r="L30" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>179</v>
       </c>
@@ -17655,17 +17655,17 @@
       <c r="L31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>243</v>
       </c>
@@ -17682,17 +17682,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>193</v>
       </c>
@@ -17711,17 +17711,17 @@
       <c r="L33" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
@@ -17738,17 +17738,17 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S34" s="1"/>
+      <c r="T34" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>240</v>
       </c>
@@ -17767,15 +17767,15 @@
         <v>194</v>
       </c>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>250</v>
       </c>
@@ -17792,17 +17792,17 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>249</v>
       </c>
@@ -17819,17 +17819,17 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2" t="s">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>252</v>
       </c>
@@ -17852,17 +17852,17 @@
       <c r="L38" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>247</v>
       </c>
@@ -17879,17 +17879,17 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2" t="s">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>238</v>
       </c>
@@ -17908,15 +17908,15 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>192</v>
       </c>
@@ -17933,17 +17933,17 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>192</v>
       </c>
@@ -17960,17 +17960,17 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>234</v>
       </c>
@@ -17987,17 +17987,17 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="2"/>
+      <c r="P43" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>236</v>
       </c>
@@ -18014,17 +18014,17 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>258</v>
       </c>
@@ -18043,25 +18043,25 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>501</v>
       </c>
